--- a/Microcontroller_lists.xlsx
+++ b/Microcontroller_lists.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ashik\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D45C4911-1704-45D7-A564-68C76F096F78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F24F0C10-6100-41B3-8A37-530047A987B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AE567929-F747-4858-A5CC-1141EDADD557}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{AE567929-F747-4858-A5CC-1141EDADD557}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="362">
   <si>
     <t>Name of Microcontroller</t>
   </si>
@@ -746,9 +746,6 @@
     <t>EFR32</t>
   </si>
   <si>
-    <t>RX62N</t>
-  </si>
-  <si>
     <t>RA4M1</t>
   </si>
   <si>
@@ -764,9 +761,6 @@
     <t>TM4C123G</t>
   </si>
   <si>
-    <t>C2000</t>
-  </si>
-  <si>
     <t>Z8 Encore</t>
   </si>
   <si>
@@ -776,9 +770,6 @@
     <t>Propeller P1&amp;P2</t>
   </si>
   <si>
-    <t>Blackfin</t>
-  </si>
-  <si>
     <t>Bluetooth 5.0 SoC with integrated ARM Cortex-M4 for low-power wireless applications.</t>
   </si>
   <si>
@@ -821,9 +812,6 @@
     <t>Texas Instruments ARM Cortex-M4 MCU with USB, ideal for embedded and robotics projects.</t>
   </si>
   <si>
-    <t>TI MCUs optimized for real-time control in power electronics and motor drives.</t>
-  </si>
-  <si>
     <t>8-bit microcontroller by Zilog for cost-sensitive embedded applications.</t>
   </si>
   <si>
@@ -836,9 +824,6 @@
     <t>High performance 16/32-bit DSP processors from Analog Devices for audio-video processing.</t>
   </si>
   <si>
-    <t>Precision analog microcontrollers from Analog Devices combining ARM cores with ADCs/DACs.</t>
-  </si>
-  <si>
     <t>https://static.cytron.io/image/catalog/products/SEEED-XIAO-BLE/10.png</t>
   </si>
   <si>
@@ -890,9 +875,6 @@
     <t>https://dou26tiipf5mn.cloudfront.net/production/project_preview/ET3FQ8O100G0/4382113a354c4303a0b768db4c526b58/wbnxunuddr.png</t>
   </si>
   <si>
-    <t>https://www.mathworks.com/hardware-support/tic2000/_jcr_content/imageParsys/image.adapt.full.medium.jpg/1699262655885.jpg</t>
-  </si>
-  <si>
     <t>https://media.rs-online.com/image/upload/bo_1.5px_solid_white,b_auto,c_pad,dpr_2,f_auto,h_399,q_auto,w_710/c_pad,h_399,w_710/F6600836-01?pgw=1</t>
   </si>
   <si>
@@ -902,13 +884,247 @@
     <t>https://cdn.hackaday.io/images/resize/600x600/7440731615741584045.jpg</t>
   </si>
   <si>
-    <t>https://tse3.mm.bing.net/th/id/OIP.DqAkvUNiHZyebpDEJwOd9QHaFq?pid=Api&amp;P=0&amp;h=180</t>
-  </si>
-  <si>
-    <t>ADUC7060BCPZ32</t>
-  </si>
-  <si>
-    <t>https://tse2.mm.bing.net/th/id/OIP.O6dYFlIU-icFf6INMyTl8QHaHa?pid=Api&amp;P=0&amp;h=180</t>
+    <t>Pin Diagram</t>
+  </si>
+  <si>
+    <t>https://blogger.googleusercontent.com/img/a/AVvXsEjiiPr7oj7FKfFwhUZ97siMqIyWcCeMwIMuuLhuTdIGZNwRbE9t7wGDJ89h9dENxymd72n4R36NIdJtxB5LuqdOjgtV9BqO_O7mkSXRjfe_b90HrDyd0v5nuUyUwnGOs-I6fOy57ichj3VPr_px0zXvE6cF0rILaczdLLPDIPq2l9im3pdjFQ6U9Chq=s16000</t>
+  </si>
+  <si>
+    <t>https://www.electronicshub.org/wp-content/uploads/2021/01/Arduino-Mega-Pinout-High-Res.jpg</t>
+  </si>
+  <si>
+    <t>https://www.teachmemicro.com/wp-content/uploads/2019/06/Arduino-Nano-pinout-3.jpg</t>
+  </si>
+  <si>
+    <t>https://duino4projects.com/wp-content/uploads/2013/04/Ardunio_leonardo_pinout.jpg</t>
+  </si>
+  <si>
+    <t>https://www.etechnophiles.com/wp-content/uploads/2021/04/Arduino-Due-Pinout-side-pins-768x637.png</t>
+  </si>
+  <si>
+    <t>https://www.etechnophiles.com/wp-content/uploads/2021/04/Arduino-Micro-pinout.png</t>
+  </si>
+  <si>
+    <t>https://content.arduino.cc/assets/Pinout-MKR1000_latest.png</t>
+  </si>
+  <si>
+    <t>https://docs.arduino.cc/static/818db48c8edbf42c21934de80002f970/ABX00012-pinout.png</t>
+  </si>
+  <si>
+    <t>https://images.theengineeringprojects.com/image/main/2021/01/introduction-to-arduino-nano-33-iot-3.png</t>
+  </si>
+  <si>
+    <t>https://www.researchgate.net/publication/358818914/figure/fig1/AS:1133123140104194@1647169017785/Arduino-33-Nano-BLE-Sense-pinout_Q640.jpg</t>
+  </si>
+  <si>
+    <t>http://land-boards.com/blwiki/images/c/c7/ArduinoProMini-735px.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.cnx-software.com/wp-content/uploads/2022/09/ESP32-DevkitC-V4-pinout-diagram.jpg?lossy=0&amp;strip=none&amp;ssl=1</t>
+  </si>
+  <si>
+    <t>https://cdn.shopify.com/s/files/1/0609/6011/2892/files/doc-esp32-wrover-board-simplified-pinout.png</t>
+  </si>
+  <si>
+    <t>https://docs.espressif.com/projects/esp-idf/en/v5.1/esp32/_images/esp32-pico-kit-v4-pinout.png</t>
+  </si>
+  <si>
+    <t>https://docs.espressif.com/projects/esp-idf/en/v5.0-beta1/esp32s2/_images/esp32-s2-devkitm-1-v1-pin-layout.png</t>
+  </si>
+  <si>
+    <t>https://tse3.mm.bing.net/th/id/OIP.h6xEJYTH7UgomQrlpPomGQHaD-?pid=Api&amp;P=0&amp;h=180</t>
+  </si>
+  <si>
+    <t>https://tse2.mm.bing.net/th/id/OIP.z2dEJj_TQJkoMofETtydoAHaFa?pid=Api&amp;P=0&amp;h=180</t>
+  </si>
+  <si>
+    <t>https://tse4.mm.bing.net/th/id/OIP.LiDHUuAmPFt9ifLO4Z9E7wHaEY?pid=Api&amp;P=0&amp;h=180</t>
+  </si>
+  <si>
+    <t>https://reversepcb.com/stm32f103c8t6/</t>
+  </si>
+  <si>
+    <t>https://www.st.com/resource/en/user_manual/um2324-stm32-nucleo64-boards-mb1360-stmicroelectronics.pdf</t>
+  </si>
+  <si>
+    <t>https://www.st.com/resource/en/user_manual/um1879-discovery-kit-with-stm32l476vg-mcu-stmicroelectronics.pdf</t>
+  </si>
+  <si>
+    <t>https://microcontrollerslab.com/stm32f4-discovery-board-pinout-features-examples/</t>
+  </si>
+  <si>
+    <t>https://www.st.com/resource/en/user_manual/um2408-stm32h7-nucleo144-boards-mb1363-stmicroelectronics.pdf</t>
+  </si>
+  <si>
+    <t>https://www.st.com/resource/en/user_manual/um1907-discovery-kit-for-stm32f7-series-with-stm32f746ng-mcu-stmicroelectronics.pdf</t>
+  </si>
+  <si>
+    <t>https://www.pjrc.com/teensy/pinout.html</t>
+  </si>
+  <si>
+    <t>https://components101.com/microcontrollers/pic16f877a-pin-diagram-description-features-datasheet</t>
+  </si>
+  <si>
+    <t>https://ww1.microchip.com/downloads/en/devicedoc/39632c.pdf</t>
+  </si>
+  <si>
+    <t>https://forums.futura-sciences.com/attachments/electronique/313991d1463058994-programmation-dun-pic32mx795f512l-module-mrf24gn0mb-pin.jpg</t>
+  </si>
+  <si>
+    <t>https://tse4.mm.bing.net/th/id/OIP.Ps438Sud6vPh1YNL-EQE0gHaDS?pid=Api&amp;P=0&amp;h=180</t>
+  </si>
+  <si>
+    <t>https://tse3.mm.bing.net/th/id/OIP.Qsqk5c2dv8rBb_kJkb2O0gHaGi?pid=Api&amp;P=0&amp;h=180</t>
+  </si>
+  <si>
+    <t>http://i.imgur.com/DsbQy2r.png?1</t>
+  </si>
+  <si>
+    <t>https://e2e.ti.com/cfs-file/__key/communityserver-discussions-components-files/166/BoosterPack_5F00_Standard.png</t>
+  </si>
+  <si>
+    <t>https://embedded-lab.com/blog/wp-content/uploads/2020/01/MSP430F5529LP-Launchpad-Pin-Map.png</t>
+  </si>
+  <si>
+    <t>https://tse1.mm.bing.net/th/id/OIP.SPK7VBQW2AvFcb5fs7Hi_AHaE7?pid=Api&amp;P=0&amp;h=180</t>
+  </si>
+  <si>
+    <t>https://files.codingninjas.in/article_images/microprocessor-8085-pin-diagram-1-1667222500.webp</t>
+  </si>
+  <si>
+    <t>https://imgconvert.csdnimg.cn/aHR0cDovL3d3dy5hbGxjaGlwZGF0YS5jb20vd3AtY29udGVudC91cGxvYWRzLzIwMjAvMDUvd29yZC1pbWFnZS0yMy5wbmc?x-oss-process=image/format,png</t>
+  </si>
+  <si>
+    <t>https://mecrisp.sourceforge.net/Pinout-2553.png</t>
+  </si>
+  <si>
+    <t>https://res02.jakelectronics.com/res/article/20211206/493-LPC1768-2.jpg</t>
+  </si>
+  <si>
+    <t>https://www.cnx-software.com/wp-content/uploads/2019/12/nRF52832-MikroBUS-Module.jpg</t>
+  </si>
+  <si>
+    <t>https://assets.eefcdn.com/app/uploads/2024/05/1715748427-3.jpg</t>
+  </si>
+  <si>
+    <t>https://os.mbed.com/media/uploads/Ting_Wang/frdm-k82f_peripheral.jpg</t>
+  </si>
+  <si>
+    <t>https://os.mbed.com/media/uploads/GregC/frdm-kl25z_headers2.png</t>
+  </si>
+  <si>
+    <t>https://static5.arrow.com/pdfs/2017/1/23/23/14/7/494/phi_/manual/frdm-k66f_fig.1_1.jpg</t>
+  </si>
+  <si>
+    <t>https://www.electronics-lab.com/wp-content/uploads/2019/06/MYD-JX8MX-Development-Board_block_diagram.png</t>
+  </si>
+  <si>
+    <t>https://www.mouser.kr/images/marketingid/2021/microsites/0/BlockDiagram.png</t>
+  </si>
+  <si>
+    <t>https://cdn.cnx-software.com/wp-content/uploads/2021/06/imx-8m-plus-SBC-block-diagram.png?lossy=0&amp;strip=none&amp;ssl=1</t>
+  </si>
+  <si>
+    <t>https://www.phytec.pl/pl/fileadmin/phytec_base/images/01-Produkte/Block-Diagrams/Block-diagram-phyCORE-iMX7.png</t>
+  </si>
+  <si>
+    <t>https://ww1.prweb.com/prfiles/2015/02/25/12545524/block%20diagram_fury-x.jpg</t>
+  </si>
+  <si>
+    <t>https://edit.wpgdadawant.com/uploads/news_file/blog/2020/1160/tinymce/5.png</t>
+  </si>
+  <si>
+    <t>https://www.nxp.jp/assets/images/en/software-images/S32K11xEVB2Q048_GS-1.1.png</t>
+  </si>
+  <si>
+    <t>https://community.nxp.com/t5/image/serverpage/image-id/123917iE58C41FD92874048/image-size/large?v=1.0&amp;px=999</t>
+  </si>
+  <si>
+    <t>https://www.theengineeringknowledge.com/wp-content/uploads/2023/04/introduction-to-NXP-LPC-Microcontrollers-1.jpg</t>
+  </si>
+  <si>
+    <t>https://www.mouser.jp/images/marketingid/2019/microsites/136640064/NXP_LPC800_BD.png</t>
+  </si>
+  <si>
+    <t>https://edit.wpgdadawant.com/uploads/news_file/program/2020/35833/program_35833_news_func_diagram_url.PNG</t>
+  </si>
+  <si>
+    <t>https://www.electronicwings.com/storage/PlatformSection/TopicContent/378/description/pinout%20of%20arm.png</t>
+  </si>
+  <si>
+    <t>https://tse4.mm.bing.net/th/id/OIP.MoJffY9x_AeOojTvqsWF9wHaFl?pid=Api&amp;P=0&amp;h=180</t>
+  </si>
+  <si>
+    <t>https://components101.com/sites/default/files/component_pin/ATMega2560-Pinout.png</t>
+  </si>
+  <si>
+    <t>https://docs.arduino.cc/static/f61cfb9d31c6f6f6ee8a9f8c9b3489fa/a6d36/32U4PinMapping.png</t>
+  </si>
+  <si>
+    <t>https://www.direnc.net/atmega1284p-au-smd-8-bit-20mhz-mikrodenetleyici-tqfp44-en-atmega-smd-atmel-microchip-54082-18-B.jpg</t>
+  </si>
+  <si>
+    <t>https://images.theengineeringprojects.com/image/768/2021/01/Introduction-to-ATmega4809-5.png</t>
+  </si>
+  <si>
+    <t>https://dnycf48t040dh.cloudfront.net/raspberry-pi-pico/fit-in/840x473/raspberry-pi-pico-gpio-pinout-diagram.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn-blog.adafruit.com/uploads/2021/05/feather-sense-pins-2048x1365.png</t>
+  </si>
+  <si>
+    <t>https://devzone.nordicsemi.com/resized-image/__size/715x689/__key/communityserver-discussions-components-files/4/0184.pastedimage1645750841987v1.png</t>
+  </si>
+  <si>
+    <t>https://circuitstate.b-cdn.net/wp-content/uploads/2021/09/Conexio-Stratus-nRF9160-Cellular-IoT-Development-Kit-Pinout-Diagram-01-2048x1449.png</t>
+  </si>
+  <si>
+    <t>https://tse3.mm.bing.net/th/id/OIP.Xz9CqfKRq07h5E-ExBc69gHaHp?pid=Api&amp;P=0&amp;h=180</t>
+  </si>
+  <si>
+    <t>https://br.mouser.com/images/marketingid/2022/microsites/155313516/dk2601b_LayoutNew.png</t>
+  </si>
+  <si>
+    <t>c2000</t>
+  </si>
+  <si>
+    <t>https://e2e.ti.com/resized-image/__size/1230x0/__key/communityserver-discussions-components-files/171/SCIBRX_5F00_SCIBTX.png</t>
+  </si>
+  <si>
+    <t>https://files.seeedstudio.com/wiki/XIAO-R4AM1/img/XIAO-RA4M1-pinout.png</t>
+  </si>
+  <si>
+    <t>https://community.renesas.com/resized-image/__size/640x480/__key/communityserver-discussions-components-files/256/pastedimage1665897133852v2.png</t>
+  </si>
+  <si>
+    <t>https://eu.mouser.com/images/marketingid/2019/microsites/161256190/S5D3BlockDiagram.png</t>
+  </si>
+  <si>
+    <t>https://usemynotes.com/wp-content/uploads/2022/10/8085-pin-diagram.jpg</t>
+  </si>
+  <si>
+    <t>https://sg.element14.com/wcsstore/ExtendedSitesCatalogAssetStore/cms/asset/images/apac/common/storefront_products/Infineon/landing/infineon-xmc-4500/infineon_img_block_diagram_01.jpg</t>
+  </si>
+  <si>
+    <t>https://tse3.mm.bing.net/th/id/OIP.2Yc_xJJmqH8jw1pUOkhxqwHaER?pid=Api&amp;P=0&amp;h=180</t>
+  </si>
+  <si>
+    <t>https://tse4.mm.bing.net/th/id/OIP.Ead7g0MTobR2SFdYDgvO2AHaDw?pid=Api&amp;P=0&amp;h=180</t>
+  </si>
+  <si>
+    <t>https://visualprog.cz/Z8F6422/Z8FCAN3.gif</t>
+  </si>
+  <si>
+    <t>https://static5.arrow.com/pdfs/2017/8/30/1/24/26/646/ixy_/manual/zgenprp0100mds_1_1.jpg</t>
+  </si>
+  <si>
+    <t>https://iotprojectsideas.com/wp-content/uploads/2020/04/Circuit-Diagram-IoT-Based-RFID-Smart-Door-Lock-1024x676.png</t>
+  </si>
+  <si>
+    <t>https://i.pinimg.com/originals/8c/9d/a0/8c9da080e2bc1e5ff88d585712749caf.jpg</t>
+  </si>
+  <si>
+    <t>Nodemcu ESP8266</t>
   </si>
 </sst>
 </file>
@@ -971,7 +1187,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1289,10 +1505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC91AED4-0EE9-42FA-8585-693FB470F072}">
-  <dimension ref="A1:C433"/>
+  <dimension ref="A1:D433"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A90" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C98" sqref="C98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1300,9 +1516,10 @@
     <col min="1" max="1" width="23.88671875" customWidth="1"/>
     <col min="2" max="2" width="40.109375" customWidth="1"/>
     <col min="3" max="3" width="31.33203125" customWidth="1"/>
+    <col min="4" max="4" width="24.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1312,8 +1529,11 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1323,8 +1543,11 @@
       <c r="C2" s="4" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="D2" s="2" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1334,8 +1557,11 @@
       <c r="C3" s="4" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="D3" s="2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1345,8 +1571,11 @@
       <c r="C4" s="4" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="D4" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1356,8 +1585,11 @@
       <c r="C5" s="4" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="D5" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1367,8 +1599,11 @@
       <c r="C6" s="3" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="D6" s="2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1378,8 +1613,11 @@
       <c r="C7" s="4" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="D7" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1389,8 +1627,11 @@
       <c r="C8" s="4" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="D8" s="2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1400,8 +1641,11 @@
       <c r="C9" s="3" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D9" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1411,8 +1655,11 @@
       <c r="C10" s="3" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D10" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -1422,8 +1669,11 @@
       <c r="C11" s="3" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="D11" s="2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -1433,8 +1683,11 @@
       <c r="C12" s="3" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="D12" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -1444,8 +1697,11 @@
       <c r="C13" s="4" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="D13" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -1455,8 +1711,11 @@
       <c r="C14" s="4" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="D14" s="2" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -1466,8 +1725,11 @@
       <c r="C15" s="4" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="D15" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -1477,8 +1739,11 @@
       <c r="C16" s="4" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="D16" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -1488,8 +1753,11 @@
       <c r="C17" s="4" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="D17" s="2" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -1499,8 +1767,11 @@
       <c r="C18" s="4" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D18" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -1510,8 +1781,11 @@
       <c r="C19" s="4" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="D19" s="2" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -1521,8 +1795,11 @@
       <c r="C20" s="4" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="D20" s="2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -1532,8 +1809,11 @@
       <c r="C21" s="4" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="D21" s="2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -1543,8 +1823,11 @@
       <c r="C22" s="4" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="D22" s="2" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -1554,8 +1837,11 @@
       <c r="C23" s="4" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="D23" s="2" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -1565,8 +1851,11 @@
       <c r="C24" s="4" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="D24" s="2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -1576,8 +1865,11 @@
       <c r="C25" s="4" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="D25" s="2" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -1587,8 +1879,11 @@
       <c r="C26" s="4" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="D26" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -1598,8 +1893,11 @@
       <c r="C27" s="3" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D27" s="2" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>29</v>
       </c>
@@ -1609,8 +1907,11 @@
       <c r="C28" s="3" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D28" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>30</v>
       </c>
@@ -1620,8 +1921,11 @@
       <c r="C29" s="3" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D29" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>31</v>
       </c>
@@ -1631,8 +1935,11 @@
       <c r="C30" s="3" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D30" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>32</v>
       </c>
@@ -1642,8 +1949,11 @@
       <c r="C31" s="3" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="D31" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>33</v>
       </c>
@@ -1653,8 +1963,11 @@
       <c r="C32" s="4" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="D32" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>34</v>
       </c>
@@ -1664,8 +1977,11 @@
       <c r="C33" s="4" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="D33" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>35</v>
       </c>
@@ -1675,8 +1991,11 @@
       <c r="C34" s="4" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D34" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>36</v>
       </c>
@@ -1686,8 +2005,11 @@
       <c r="C35" s="4" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="D35" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>37</v>
       </c>
@@ -1697,8 +2019,11 @@
       <c r="C36" s="4" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="D36" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>38</v>
       </c>
@@ -1708,8 +2033,11 @@
       <c r="C37" s="4" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="D37" s="2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>39</v>
       </c>
@@ -1719,8 +2047,11 @@
       <c r="C38" s="4" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D38" s="2" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>40</v>
       </c>
@@ -1730,8 +2061,11 @@
       <c r="C39" s="4" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D39" s="2" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>41</v>
       </c>
@@ -1741,8 +2075,11 @@
       <c r="C40" s="4" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D40" s="2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>42</v>
       </c>
@@ -1752,8 +2089,11 @@
       <c r="C41" s="4" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D41" s="2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>43</v>
       </c>
@@ -1763,8 +2103,11 @@
       <c r="C42" s="4" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="D42" s="2" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>44</v>
       </c>
@@ -1774,8 +2117,11 @@
       <c r="C43" s="4" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="D43" s="2" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>45</v>
       </c>
@@ -1785,8 +2131,11 @@
       <c r="C44" s="4" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D44" s="2" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>46</v>
       </c>
@@ -1796,8 +2145,11 @@
       <c r="C45" s="4" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="D45" s="2" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>47</v>
       </c>
@@ -1807,8 +2159,11 @@
       <c r="C46" s="4" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D46" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>48</v>
       </c>
@@ -1818,8 +2173,11 @@
       <c r="C47" s="4" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="D47" s="2" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>49</v>
       </c>
@@ -1829,8 +2187,11 @@
       <c r="C48" s="4" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D48" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>50</v>
       </c>
@@ -1840,8 +2201,11 @@
       <c r="C49" s="4" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="D49" s="2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>51</v>
       </c>
@@ -1851,8 +2215,11 @@
       <c r="C50" s="4" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D50" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>52</v>
       </c>
@@ -1862,8 +2229,11 @@
       <c r="C51" s="4" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D51" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>53</v>
       </c>
@@ -1873,8 +2243,11 @@
       <c r="C52" s="4" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D52" s="2" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>54</v>
       </c>
@@ -1884,8 +2257,11 @@
       <c r="C53" s="4" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D53" s="2" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>55</v>
       </c>
@@ -1895,8 +2271,11 @@
       <c r="C54" s="4" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="D54" s="2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>56</v>
       </c>
@@ -1906,8 +2285,11 @@
       <c r="C55" s="4" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D55" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>57</v>
       </c>
@@ -1917,8 +2299,11 @@
       <c r="C56" s="4" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D56" s="2" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>58</v>
       </c>
@@ -1928,8 +2313,11 @@
       <c r="C57" s="4" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D57" s="2" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>59</v>
       </c>
@@ -1939,8 +2327,11 @@
       <c r="C58" s="4" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D58" s="2" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>60</v>
       </c>
@@ -1950,8 +2341,11 @@
       <c r="C59" s="4" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D59" s="2" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>61</v>
       </c>
@@ -1961,8 +2355,11 @@
       <c r="C60" s="4" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D60" s="2" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>62</v>
       </c>
@@ -1972,8 +2369,11 @@
       <c r="C61" s="4" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D61" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>63</v>
       </c>
@@ -1983,8 +2383,11 @@
       <c r="C62" s="4" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="D62" s="2" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>64</v>
       </c>
@@ -1994,8 +2397,11 @@
       <c r="C63" s="4" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D63" s="2" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>65</v>
       </c>
@@ -2005,8 +2411,11 @@
       <c r="C64" s="4" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D64" s="2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>66</v>
       </c>
@@ -2016,8 +2425,11 @@
       <c r="C65" s="4" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D65" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>67</v>
       </c>
@@ -2027,8 +2439,11 @@
       <c r="C66" s="4" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="D66" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>68</v>
       </c>
@@ -2038,8 +2453,11 @@
       <c r="C67" s="4" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D67" s="2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>69</v>
       </c>
@@ -2049,8 +2467,11 @@
       <c r="C68" s="4" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D68" s="2" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>70</v>
       </c>
@@ -2060,8 +2481,11 @@
       <c r="C69" s="4" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="D69" s="2" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>71</v>
       </c>
@@ -2071,8 +2495,11 @@
       <c r="C70" s="4" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="D70" s="2" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>72</v>
       </c>
@@ -2082,8 +2509,11 @@
       <c r="C71" s="4" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="D71" s="2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>73</v>
       </c>
@@ -2093,8 +2523,11 @@
       <c r="C72" s="4" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="D72" s="2" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>74</v>
       </c>
@@ -2104,8 +2537,11 @@
       <c r="C73" s="4" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="D73" s="2" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>75</v>
       </c>
@@ -2115,8 +2551,11 @@
       <c r="C74" s="4" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="D74" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>76</v>
       </c>
@@ -2126,8 +2565,11 @@
       <c r="C75" s="4" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="D75" s="2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>77</v>
       </c>
@@ -2137,8 +2579,11 @@
       <c r="C76" s="4" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D76" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>78</v>
       </c>
@@ -2148,1314 +2593,1655 @@
       <c r="C77" s="4" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="D77" s="2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>230</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+        <v>243</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>231</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+        <v>244</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>232</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+        <v>245</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>233</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+        <v>246</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>234</v>
       </c>
       <c r="B82" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>348</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>235</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>236</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>269</v>
+      </c>
+      <c r="B86" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="C82" s="1" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
-        <v>235</v>
-      </c>
-      <c r="B83" s="2" t="s">
+      <c r="C86" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>237</v>
+      </c>
+      <c r="B87" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="C83" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
-        <v>236</v>
-      </c>
-      <c r="B84" s="2" t="s">
+      <c r="C87" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>238</v>
+      </c>
+      <c r="B88" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="C84" s="1" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
-        <v>237</v>
-      </c>
-      <c r="B85" s="2" t="s">
+      <c r="C88" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
         <v>273</v>
       </c>
-      <c r="C85" s="1" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
+      <c r="B89" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="B86" s="2" t="s">
+      <c r="C89" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
         <v>275</v>
       </c>
-      <c r="C86" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
-        <v>238</v>
-      </c>
-      <c r="B87" s="2" t="s">
+      <c r="B90" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="C87" s="1" t="s">
+      <c r="C90" s="1" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
+      <c r="D90" s="2" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
         <v>239</v>
       </c>
-      <c r="B88" s="2" t="s">
+      <c r="B91" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="C88" s="1" t="s">
+      <c r="C91" s="1" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
+      <c r="D91" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>240</v>
+      </c>
+      <c r="B92" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="B89" s="2" t="s">
+      <c r="C92" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>241</v>
+      </c>
+      <c r="B93" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="C89" s="1" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
+      <c r="C93" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>242</v>
+      </c>
+      <c r="B94" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="B90" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
-        <v>240</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="C91" s="1" t="s">
+      <c r="C94" s="1" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
-        <v>241</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="C92" s="1" t="s">
+      <c r="D94" s="2" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>361</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="C95" s="1" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" ht="72" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
-        <v>242</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
-        <v>243</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
-        <v>244</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A96" t="s">
-        <v>245</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A97" t="s">
-        <v>288</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D95" s="2" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B96" s="2"/>
+      <c r="C96" s="1"/>
+      <c r="D96" s="1"/>
+    </row>
+    <row r="98" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D98" s="1"/>
+    </row>
+    <row r="99" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D99" s="1"/>
+    </row>
+    <row r="100" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D100" s="1"/>
+    </row>
+    <row r="101" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D101" s="1"/>
+    </row>
+    <row r="102" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D102" s="1"/>
+    </row>
+    <row r="103" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D103" s="1"/>
+    </row>
+    <row r="104" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D104" s="1"/>
+    </row>
+    <row r="105" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D105" s="1"/>
+    </row>
+    <row r="106" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D106" s="1"/>
+    </row>
+    <row r="107" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D107" s="1"/>
+    </row>
+    <row r="108" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D108" s="1"/>
+    </row>
+    <row r="109" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D109" s="1"/>
+    </row>
+    <row r="110" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D110" s="1"/>
+    </row>
+    <row r="111" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D111" s="1"/>
+    </row>
+    <row r="112" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
-    </row>
-    <row r="113" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D112" s="1"/>
+    </row>
+    <row r="113" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
-    </row>
-    <row r="114" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D113" s="1"/>
+    </row>
+    <row r="114" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
-    </row>
-    <row r="115" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D114" s="1"/>
+    </row>
+    <row r="115" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
-    </row>
-    <row r="116" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D115" s="1"/>
+    </row>
+    <row r="116" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
-    </row>
-    <row r="117" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D116" s="1"/>
+    </row>
+    <row r="117" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
-    </row>
-    <row r="118" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D117" s="1"/>
+    </row>
+    <row r="118" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
-    </row>
-    <row r="119" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D118" s="1"/>
+    </row>
+    <row r="119" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
-    </row>
-    <row r="120" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D119" s="1"/>
+    </row>
+    <row r="120" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
-    </row>
-    <row r="121" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D120" s="1"/>
+    </row>
+    <row r="121" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
-    </row>
-    <row r="122" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D121" s="1"/>
+    </row>
+    <row r="122" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
-    </row>
-    <row r="123" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D122" s="1"/>
+    </row>
+    <row r="123" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
-    </row>
-    <row r="124" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D123" s="1"/>
+    </row>
+    <row r="124" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
-    </row>
-    <row r="125" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D124" s="1"/>
+    </row>
+    <row r="125" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
-    </row>
-    <row r="126" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D125" s="1"/>
+    </row>
+    <row r="126" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
-    </row>
-    <row r="127" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D126" s="1"/>
+    </row>
+    <row r="127" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
-    </row>
-    <row r="128" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D127" s="1"/>
+    </row>
+    <row r="128" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
-    </row>
-    <row r="129" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D128" s="1"/>
+    </row>
+    <row r="129" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
-    </row>
-    <row r="130" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D129" s="1"/>
+    </row>
+    <row r="130" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
-    </row>
-    <row r="131" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D130" s="1"/>
+    </row>
+    <row r="131" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
-    </row>
-    <row r="132" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D131" s="1"/>
+    </row>
+    <row r="132" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
-    </row>
-    <row r="133" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D132" s="1"/>
+    </row>
+    <row r="133" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
-    </row>
-    <row r="134" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D133" s="1"/>
+    </row>
+    <row r="134" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
-    </row>
-    <row r="135" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D134" s="1"/>
+    </row>
+    <row r="135" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
-    </row>
-    <row r="136" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D135" s="1"/>
+    </row>
+    <row r="136" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
-    </row>
-    <row r="137" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D136" s="1"/>
+    </row>
+    <row r="137" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
-    </row>
-    <row r="138" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D137" s="1"/>
+    </row>
+    <row r="138" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
-    </row>
-    <row r="139" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D138" s="1"/>
+    </row>
+    <row r="139" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
-    </row>
-    <row r="140" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D139" s="1"/>
+    </row>
+    <row r="140" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
-    </row>
-    <row r="141" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D140" s="1"/>
+    </row>
+    <row r="141" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
-    </row>
-    <row r="142" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D141" s="1"/>
+    </row>
+    <row r="142" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
-    </row>
-    <row r="143" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D142" s="1"/>
+    </row>
+    <row r="143" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
-    </row>
-    <row r="144" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D143" s="1"/>
+    </row>
+    <row r="144" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
-    </row>
-    <row r="145" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D144" s="1"/>
+    </row>
+    <row r="145" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
-    </row>
-    <row r="146" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D145" s="1"/>
+    </row>
+    <row r="146" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
-    </row>
-    <row r="147" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D146" s="1"/>
+    </row>
+    <row r="147" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
-    </row>
-    <row r="148" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D147" s="1"/>
+    </row>
+    <row r="148" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
-    </row>
-    <row r="149" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D148" s="1"/>
+    </row>
+    <row r="149" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
-    </row>
-    <row r="150" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D149" s="1"/>
+    </row>
+    <row r="150" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
-    </row>
-    <row r="151" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D150" s="1"/>
+    </row>
+    <row r="151" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
-    </row>
-    <row r="152" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D151" s="1"/>
+    </row>
+    <row r="152" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
-    </row>
-    <row r="153" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D152" s="1"/>
+    </row>
+    <row r="153" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
-    </row>
-    <row r="154" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D153" s="1"/>
+    </row>
+    <row r="154" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
-    </row>
-    <row r="155" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D154" s="1"/>
+    </row>
+    <row r="155" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
-    </row>
-    <row r="156" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D155" s="1"/>
+    </row>
+    <row r="156" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
-    </row>
-    <row r="157" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D156" s="1"/>
+    </row>
+    <row r="157" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
-    </row>
-    <row r="158" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D157" s="1"/>
+    </row>
+    <row r="158" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
-    </row>
-    <row r="159" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D158" s="1"/>
+    </row>
+    <row r="159" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
-    </row>
-    <row r="160" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D159" s="1"/>
+    </row>
+    <row r="160" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
-    </row>
-    <row r="161" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D160" s="1"/>
+    </row>
+    <row r="161" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
-    </row>
-    <row r="162" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D161" s="1"/>
+    </row>
+    <row r="162" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
-    </row>
-    <row r="163" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D162" s="1"/>
+    </row>
+    <row r="163" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
-    </row>
-    <row r="164" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D163" s="1"/>
+    </row>
+    <row r="164" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
-    </row>
-    <row r="165" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D164" s="1"/>
+    </row>
+    <row r="165" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
-    </row>
-    <row r="166" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D165" s="1"/>
+    </row>
+    <row r="166" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
-    </row>
-    <row r="167" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D166" s="1"/>
+    </row>
+    <row r="167" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
-    </row>
-    <row r="168" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D167" s="1"/>
+    </row>
+    <row r="168" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
-    </row>
-    <row r="169" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D168" s="1"/>
+    </row>
+    <row r="169" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
-    </row>
-    <row r="170" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D169" s="1"/>
+    </row>
+    <row r="170" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
-    </row>
-    <row r="171" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D170" s="1"/>
+    </row>
+    <row r="171" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
-    </row>
-    <row r="172" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D171" s="1"/>
+    </row>
+    <row r="172" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
-    </row>
-    <row r="173" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D172" s="1"/>
+    </row>
+    <row r="173" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
-    </row>
-    <row r="174" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D173" s="1"/>
+    </row>
+    <row r="174" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
-    </row>
-    <row r="175" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D174" s="1"/>
+    </row>
+    <row r="175" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
-    </row>
-    <row r="176" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D175" s="1"/>
+    </row>
+    <row r="176" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
-    </row>
-    <row r="177" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D176" s="1"/>
+    </row>
+    <row r="177" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
-    </row>
-    <row r="178" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D177" s="1"/>
+    </row>
+    <row r="178" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
-    </row>
-    <row r="179" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D178" s="1"/>
+    </row>
+    <row r="179" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
-    </row>
-    <row r="180" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D179" s="1"/>
+    </row>
+    <row r="180" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
-    </row>
-    <row r="181" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D180" s="1"/>
+    </row>
+    <row r="181" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
-    </row>
-    <row r="182" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D181" s="1"/>
+    </row>
+    <row r="182" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
-    </row>
-    <row r="183" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D182" s="1"/>
+    </row>
+    <row r="183" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
-    </row>
-    <row r="184" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D183" s="1"/>
+    </row>
+    <row r="184" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
-    </row>
-    <row r="185" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D184" s="1"/>
+    </row>
+    <row r="185" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
-    </row>
-    <row r="186" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D185" s="1"/>
+    </row>
+    <row r="186" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
-    </row>
-    <row r="187" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D186" s="1"/>
+    </row>
+    <row r="187" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
-    </row>
-    <row r="188" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D187" s="1"/>
+    </row>
+    <row r="188" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
-    </row>
-    <row r="189" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D188" s="1"/>
+    </row>
+    <row r="189" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
-    </row>
-    <row r="190" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D189" s="1"/>
+    </row>
+    <row r="190" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
-    </row>
-    <row r="191" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D190" s="1"/>
+    </row>
+    <row r="191" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
-    </row>
-    <row r="192" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D191" s="1"/>
+    </row>
+    <row r="192" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
-    </row>
-    <row r="193" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D192" s="1"/>
+    </row>
+    <row r="193" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
-    </row>
-    <row r="194" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D193" s="1"/>
+    </row>
+    <row r="194" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
-    </row>
-    <row r="195" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D194" s="1"/>
+    </row>
+    <row r="195" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
-    </row>
-    <row r="196" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D195" s="1"/>
+    </row>
+    <row r="196" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
-    </row>
-    <row r="197" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D196" s="1"/>
+    </row>
+    <row r="197" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
-    </row>
-    <row r="198" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D197" s="1"/>
+    </row>
+    <row r="198" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
-    </row>
-    <row r="199" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D198" s="1"/>
+    </row>
+    <row r="199" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
-    </row>
-    <row r="200" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D199" s="1"/>
+    </row>
+    <row r="200" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
-    </row>
-    <row r="201" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D200" s="1"/>
+    </row>
+    <row r="201" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
-    </row>
-    <row r="202" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D201" s="1"/>
+    </row>
+    <row r="202" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
-    </row>
-    <row r="203" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D202" s="1"/>
+    </row>
+    <row r="203" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
-    </row>
-    <row r="204" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D203" s="1"/>
+    </row>
+    <row r="204" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
-    </row>
-    <row r="205" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D204" s="1"/>
+    </row>
+    <row r="205" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
-    </row>
-    <row r="206" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D205" s="1"/>
+    </row>
+    <row r="206" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
-    </row>
-    <row r="207" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D206" s="1"/>
+    </row>
+    <row r="207" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
-    </row>
-    <row r="208" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D207" s="1"/>
+    </row>
+    <row r="208" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
-    </row>
-    <row r="209" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D208" s="1"/>
+    </row>
+    <row r="209" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
-    </row>
-    <row r="210" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D209" s="1"/>
+    </row>
+    <row r="210" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
-    </row>
-    <row r="211" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D210" s="1"/>
+    </row>
+    <row r="211" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
-    </row>
-    <row r="212" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D211" s="1"/>
+    </row>
+    <row r="212" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
-    </row>
-    <row r="213" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D212" s="1"/>
+    </row>
+    <row r="213" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
-    </row>
-    <row r="214" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D213" s="1"/>
+    </row>
+    <row r="214" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
-    </row>
-    <row r="215" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D214" s="1"/>
+    </row>
+    <row r="215" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
-    </row>
-    <row r="216" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D215" s="1"/>
+    </row>
+    <row r="216" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
-    </row>
-    <row r="217" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D216" s="1"/>
+    </row>
+    <row r="217" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
-    </row>
-    <row r="218" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D217" s="1"/>
+    </row>
+    <row r="218" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
-    </row>
-    <row r="219" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D218" s="1"/>
+    </row>
+    <row r="219" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
-    </row>
-    <row r="220" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D219" s="1"/>
+    </row>
+    <row r="220" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
-    </row>
-    <row r="221" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D220" s="1"/>
+    </row>
+    <row r="221" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
-    </row>
-    <row r="222" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D221" s="1"/>
+    </row>
+    <row r="222" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
-    </row>
-    <row r="223" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D222" s="1"/>
+    </row>
+    <row r="223" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
-    </row>
-    <row r="224" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D223" s="1"/>
+    </row>
+    <row r="224" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
-    </row>
-    <row r="225" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D224" s="1"/>
+    </row>
+    <row r="225" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
-    </row>
-    <row r="226" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D225" s="1"/>
+    </row>
+    <row r="226" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
-    </row>
-    <row r="227" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D226" s="1"/>
+    </row>
+    <row r="227" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
-    </row>
-    <row r="228" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D227" s="1"/>
+    </row>
+    <row r="228" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
-    </row>
-    <row r="229" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D228" s="1"/>
+    </row>
+    <row r="229" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
-    </row>
-    <row r="230" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D229" s="1"/>
+    </row>
+    <row r="230" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
-    </row>
-    <row r="231" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D230" s="1"/>
+    </row>
+    <row r="231" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
-    </row>
-    <row r="232" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D231" s="1"/>
+    </row>
+    <row r="232" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
-    </row>
-    <row r="233" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D232" s="1"/>
+    </row>
+    <row r="233" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
-    </row>
-    <row r="234" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D233" s="1"/>
+    </row>
+    <row r="234" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
-    </row>
-    <row r="235" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D234" s="1"/>
+    </row>
+    <row r="235" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B235" s="1"/>
       <c r="C235" s="1"/>
-    </row>
-    <row r="236" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D235" s="1"/>
+    </row>
+    <row r="236" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
-    </row>
-    <row r="237" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D236" s="1"/>
+    </row>
+    <row r="237" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B237" s="1"/>
       <c r="C237" s="1"/>
-    </row>
-    <row r="238" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D237" s="1"/>
+    </row>
+    <row r="238" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B238" s="1"/>
       <c r="C238" s="1"/>
-    </row>
-    <row r="239" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D238" s="1"/>
+    </row>
+    <row r="239" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B239" s="1"/>
       <c r="C239" s="1"/>
-    </row>
-    <row r="240" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D239" s="1"/>
+    </row>
+    <row r="240" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B240" s="1"/>
       <c r="C240" s="1"/>
-    </row>
-    <row r="241" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D240" s="1"/>
+    </row>
+    <row r="241" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B241" s="1"/>
       <c r="C241" s="1"/>
-    </row>
-    <row r="242" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D241" s="1"/>
+    </row>
+    <row r="242" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B242" s="1"/>
       <c r="C242" s="1"/>
-    </row>
-    <row r="243" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D242" s="1"/>
+    </row>
+    <row r="243" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B243" s="1"/>
       <c r="C243" s="1"/>
-    </row>
-    <row r="244" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D243" s="1"/>
+    </row>
+    <row r="244" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
-    </row>
-    <row r="245" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D244" s="1"/>
+    </row>
+    <row r="245" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B245" s="1"/>
       <c r="C245" s="1"/>
-    </row>
-    <row r="246" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D245" s="1"/>
+    </row>
+    <row r="246" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B246" s="1"/>
       <c r="C246" s="1"/>
-    </row>
-    <row r="247" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D246" s="1"/>
+    </row>
+    <row r="247" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B247" s="1"/>
       <c r="C247" s="1"/>
-    </row>
-    <row r="248" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D247" s="1"/>
+    </row>
+    <row r="248" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B248" s="1"/>
       <c r="C248" s="1"/>
-    </row>
-    <row r="249" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D248" s="1"/>
+    </row>
+    <row r="249" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B249" s="1"/>
       <c r="C249" s="1"/>
-    </row>
-    <row r="250" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D249" s="1"/>
+    </row>
+    <row r="250" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B250" s="1"/>
       <c r="C250" s="1"/>
-    </row>
-    <row r="251" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D250" s="1"/>
+    </row>
+    <row r="251" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B251" s="1"/>
       <c r="C251" s="1"/>
-    </row>
-    <row r="252" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D251" s="1"/>
+    </row>
+    <row r="252" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B252" s="1"/>
       <c r="C252" s="1"/>
-    </row>
-    <row r="253" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D252" s="1"/>
+    </row>
+    <row r="253" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B253" s="1"/>
       <c r="C253" s="1"/>
-    </row>
-    <row r="254" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D253" s="1"/>
+    </row>
+    <row r="254" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B254" s="1"/>
       <c r="C254" s="1"/>
-    </row>
-    <row r="255" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D254" s="1"/>
+    </row>
+    <row r="255" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B255" s="1"/>
       <c r="C255" s="1"/>
-    </row>
-    <row r="256" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D255" s="1"/>
+    </row>
+    <row r="256" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B256" s="1"/>
       <c r="C256" s="1"/>
-    </row>
-    <row r="257" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D256" s="1"/>
+    </row>
+    <row r="257" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B257" s="1"/>
       <c r="C257" s="1"/>
-    </row>
-    <row r="258" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D257" s="1"/>
+    </row>
+    <row r="258" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B258" s="1"/>
       <c r="C258" s="1"/>
-    </row>
-    <row r="259" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D258" s="1"/>
+    </row>
+    <row r="259" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B259" s="1"/>
       <c r="C259" s="1"/>
-    </row>
-    <row r="260" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D259" s="1"/>
+    </row>
+    <row r="260" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B260" s="1"/>
       <c r="C260" s="1"/>
-    </row>
-    <row r="261" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D260" s="1"/>
+    </row>
+    <row r="261" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B261" s="1"/>
       <c r="C261" s="1"/>
-    </row>
-    <row r="262" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D261" s="1"/>
+    </row>
+    <row r="262" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B262" s="1"/>
       <c r="C262" s="1"/>
-    </row>
-    <row r="263" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D262" s="1"/>
+    </row>
+    <row r="263" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B263" s="1"/>
       <c r="C263" s="1"/>
-    </row>
-    <row r="264" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D263" s="1"/>
+    </row>
+    <row r="264" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B264" s="1"/>
       <c r="C264" s="1"/>
-    </row>
-    <row r="265" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D264" s="1"/>
+    </row>
+    <row r="265" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B265" s="1"/>
       <c r="C265" s="1"/>
-    </row>
-    <row r="266" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D265" s="1"/>
+    </row>
+    <row r="266" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B266" s="1"/>
       <c r="C266" s="1"/>
-    </row>
-    <row r="267" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D266" s="1"/>
+    </row>
+    <row r="267" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B267" s="1"/>
       <c r="C267" s="1"/>
-    </row>
-    <row r="268" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D267" s="1"/>
+    </row>
+    <row r="268" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B268" s="1"/>
       <c r="C268" s="1"/>
-    </row>
-    <row r="269" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D268" s="1"/>
+    </row>
+    <row r="269" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B269" s="1"/>
       <c r="C269" s="1"/>
-    </row>
-    <row r="270" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D269" s="1"/>
+    </row>
+    <row r="270" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B270" s="1"/>
       <c r="C270" s="1"/>
-    </row>
-    <row r="271" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D270" s="1"/>
+    </row>
+    <row r="271" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B271" s="1"/>
       <c r="C271" s="1"/>
-    </row>
-    <row r="272" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D271" s="1"/>
+    </row>
+    <row r="272" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B272" s="1"/>
       <c r="C272" s="1"/>
-    </row>
-    <row r="273" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D272" s="1"/>
+    </row>
+    <row r="273" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B273" s="1"/>
       <c r="C273" s="1"/>
-    </row>
-    <row r="274" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D273" s="1"/>
+    </row>
+    <row r="274" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B274" s="1"/>
       <c r="C274" s="1"/>
-    </row>
-    <row r="275" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D274" s="1"/>
+    </row>
+    <row r="275" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B275" s="1"/>
       <c r="C275" s="1"/>
-    </row>
-    <row r="276" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D275" s="1"/>
+    </row>
+    <row r="276" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B276" s="1"/>
       <c r="C276" s="1"/>
-    </row>
-    <row r="277" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D276" s="1"/>
+    </row>
+    <row r="277" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B277" s="1"/>
       <c r="C277" s="1"/>
-    </row>
-    <row r="278" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D277" s="1"/>
+    </row>
+    <row r="278" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B278" s="1"/>
-    </row>
-    <row r="279" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D278" s="1"/>
+    </row>
+    <row r="279" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B279" s="1"/>
-    </row>
-    <row r="280" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D279" s="1"/>
+    </row>
+    <row r="280" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B280" s="1"/>
-    </row>
-    <row r="281" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D280" s="1"/>
+    </row>
+    <row r="281" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B281" s="1"/>
-    </row>
-    <row r="282" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D281" s="1"/>
+    </row>
+    <row r="282" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B282" s="1"/>
-    </row>
-    <row r="283" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D282" s="1"/>
+    </row>
+    <row r="283" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B283" s="1"/>
-    </row>
-    <row r="284" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D283" s="1"/>
+    </row>
+    <row r="284" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B284" s="1"/>
-    </row>
-    <row r="285" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D284" s="1"/>
+    </row>
+    <row r="285" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B285" s="1"/>
-    </row>
-    <row r="286" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D285" s="1"/>
+    </row>
+    <row r="286" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B286" s="1"/>
-    </row>
-    <row r="287" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D286" s="1"/>
+    </row>
+    <row r="287" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B287" s="1"/>
-    </row>
-    <row r="288" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D287" s="1"/>
+    </row>
+    <row r="288" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B288" s="1"/>
-    </row>
-    <row r="289" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="D288" s="1"/>
+    </row>
+    <row r="289" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B289" s="1"/>
-    </row>
-    <row r="290" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="D289" s="1"/>
+    </row>
+    <row r="290" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B290" s="1"/>
-    </row>
-    <row r="291" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="D290" s="1"/>
+    </row>
+    <row r="291" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B291" s="1"/>
-    </row>
-    <row r="292" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="D291" s="1"/>
+    </row>
+    <row r="292" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B292" s="1"/>
-    </row>
-    <row r="293" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="D292" s="1"/>
+    </row>
+    <row r="293" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B293" s="1"/>
-    </row>
-    <row r="294" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="D293" s="1"/>
+    </row>
+    <row r="294" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B294" s="1"/>
-    </row>
-    <row r="295" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="D294" s="1"/>
+    </row>
+    <row r="295" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B295" s="1"/>
-    </row>
-    <row r="296" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="D295" s="1"/>
+    </row>
+    <row r="296" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B296" s="1"/>
-    </row>
-    <row r="297" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="D296" s="1"/>
+    </row>
+    <row r="297" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B297" s="1"/>
-    </row>
-    <row r="298" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="D297" s="1"/>
+    </row>
+    <row r="298" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B298" s="1"/>
-    </row>
-    <row r="299" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="D298" s="1"/>
+    </row>
+    <row r="299" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B299" s="1"/>
-    </row>
-    <row r="300" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="D299" s="1"/>
+    </row>
+    <row r="300" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B300" s="1"/>
-    </row>
-    <row r="301" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="D300" s="1"/>
+    </row>
+    <row r="301" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B301" s="1"/>
-    </row>
-    <row r="302" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="D301" s="1"/>
+    </row>
+    <row r="302" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B302" s="1"/>
-    </row>
-    <row r="303" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="D302" s="1"/>
+    </row>
+    <row r="303" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B303" s="1"/>
-    </row>
-    <row r="304" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="D303" s="1"/>
+    </row>
+    <row r="304" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B304" s="1"/>
-    </row>
-    <row r="305" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="D304" s="1"/>
+    </row>
+    <row r="305" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B305" s="1"/>
-    </row>
-    <row r="306" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="D305" s="1"/>
+    </row>
+    <row r="306" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B306" s="1"/>
-    </row>
-    <row r="307" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="D306" s="1"/>
+    </row>
+    <row r="307" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B307" s="1"/>
-    </row>
-    <row r="308" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="D307" s="1"/>
+    </row>
+    <row r="308" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B308" s="1"/>
-    </row>
-    <row r="309" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="D308" s="1"/>
+    </row>
+    <row r="309" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B309" s="1"/>
-    </row>
-    <row r="310" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="D309" s="1"/>
+    </row>
+    <row r="310" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B310" s="1"/>
-    </row>
-    <row r="311" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="D310" s="1"/>
+    </row>
+    <row r="311" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B311" s="1"/>
-    </row>
-    <row r="312" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="D311" s="1"/>
+    </row>
+    <row r="312" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B312" s="1"/>
-    </row>
-    <row r="313" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="D312" s="1"/>
+    </row>
+    <row r="313" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B313" s="1"/>
-    </row>
-    <row r="314" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="D313" s="1"/>
+    </row>
+    <row r="314" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B314" s="1"/>
-    </row>
-    <row r="315" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="D314" s="1"/>
+    </row>
+    <row r="315" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B315" s="1"/>
-    </row>
-    <row r="316" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="D315" s="1"/>
+    </row>
+    <row r="316" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B316" s="1"/>
-    </row>
-    <row r="317" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="D316" s="1"/>
+    </row>
+    <row r="317" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B317" s="1"/>
-    </row>
-    <row r="318" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="D317" s="1"/>
+    </row>
+    <row r="318" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B318" s="1"/>
-    </row>
-    <row r="319" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="D318" s="1"/>
+    </row>
+    <row r="319" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B319" s="1"/>
-    </row>
-    <row r="320" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="D319" s="1"/>
+    </row>
+    <row r="320" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B320" s="1"/>
-    </row>
-    <row r="321" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="D320" s="1"/>
+    </row>
+    <row r="321" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B321" s="1"/>
-    </row>
-    <row r="322" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="D321" s="1"/>
+    </row>
+    <row r="322" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B322" s="1"/>
-    </row>
-    <row r="323" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="D322" s="1"/>
+    </row>
+    <row r="323" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B323" s="1"/>
-    </row>
-    <row r="324" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="D323" s="1"/>
+    </row>
+    <row r="324" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B324" s="1"/>
-    </row>
-    <row r="325" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="D324" s="1"/>
+    </row>
+    <row r="325" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B325" s="1"/>
-    </row>
-    <row r="326" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="D325" s="1"/>
+    </row>
+    <row r="326" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B326" s="1"/>
-    </row>
-    <row r="327" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="D326" s="1"/>
+    </row>
+    <row r="327" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B327" s="1"/>
-    </row>
-    <row r="328" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="D327" s="1"/>
+    </row>
+    <row r="328" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B328" s="1"/>
-    </row>
-    <row r="329" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="D328" s="1"/>
+    </row>
+    <row r="329" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B329" s="1"/>
-    </row>
-    <row r="330" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="D329" s="1"/>
+    </row>
+    <row r="330" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B330" s="1"/>
-    </row>
-    <row r="331" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="D330" s="1"/>
+    </row>
+    <row r="331" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B331" s="1"/>
-    </row>
-    <row r="332" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="D331" s="1"/>
+    </row>
+    <row r="332" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B332" s="1"/>
-    </row>
-    <row r="333" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="D332" s="1"/>
+    </row>
+    <row r="333" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B333" s="1"/>
-    </row>
-    <row r="334" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="D333" s="1"/>
+    </row>
+    <row r="334" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B334" s="1"/>
-    </row>
-    <row r="335" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="D334" s="1"/>
+    </row>
+    <row r="335" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B335" s="1"/>
-    </row>
-    <row r="336" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="D335" s="1"/>
+    </row>
+    <row r="336" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B336" s="1"/>
-    </row>
-    <row r="337" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="D336" s="1"/>
+    </row>
+    <row r="337" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B337" s="1"/>
-    </row>
-    <row r="338" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="D337" s="1"/>
+    </row>
+    <row r="338" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B338" s="1"/>
-    </row>
-    <row r="339" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="D338" s="1"/>
+    </row>
+    <row r="339" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B339" s="1"/>
-    </row>
-    <row r="340" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="D339" s="1"/>
+    </row>
+    <row r="340" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B340" s="1"/>
-    </row>
-    <row r="341" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="D340" s="1"/>
+    </row>
+    <row r="341" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B341" s="1"/>
-    </row>
-    <row r="342" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="D341" s="1"/>
+    </row>
+    <row r="342" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B342" s="1"/>
-    </row>
-    <row r="343" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="D342" s="1"/>
+    </row>
+    <row r="343" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B343" s="1"/>
-    </row>
-    <row r="344" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="D343" s="1"/>
+    </row>
+    <row r="344" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B344" s="1"/>
-    </row>
-    <row r="345" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="D344" s="1"/>
+    </row>
+    <row r="345" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B345" s="1"/>
-    </row>
-    <row r="346" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="D345" s="1"/>
+    </row>
+    <row r="346" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B346" s="1"/>
-    </row>
-    <row r="347" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="D346" s="1"/>
+    </row>
+    <row r="347" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B347" s="1"/>
-    </row>
-    <row r="348" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="D347" s="1"/>
+    </row>
+    <row r="348" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B348" s="1"/>
-    </row>
-    <row r="349" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="D348" s="1"/>
+    </row>
+    <row r="349" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B349" s="1"/>
-    </row>
-    <row r="350" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="D349" s="1"/>
+    </row>
+    <row r="350" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B350" s="1"/>
-    </row>
-    <row r="351" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="D350" s="1"/>
+    </row>
+    <row r="351" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B351" s="1"/>
-    </row>
-    <row r="352" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="D351" s="1"/>
+    </row>
+    <row r="352" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B352" s="1"/>
-    </row>
-    <row r="353" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="D352" s="1"/>
+    </row>
+    <row r="353" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B353" s="1"/>
-    </row>
-    <row r="354" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="D353" s="1"/>
+    </row>
+    <row r="354" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B354" s="1"/>
-    </row>
-    <row r="355" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="D354" s="1"/>
+    </row>
+    <row r="355" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B355" s="1"/>
-    </row>
-    <row r="356" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="D355" s="1"/>
+    </row>
+    <row r="356" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B356" s="1"/>
-    </row>
-    <row r="357" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="D356" s="1"/>
+    </row>
+    <row r="357" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B357" s="1"/>
-    </row>
-    <row r="358" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="D357" s="1"/>
+    </row>
+    <row r="358" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B358" s="1"/>
-    </row>
-    <row r="359" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="D358" s="1"/>
+    </row>
+    <row r="359" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B359" s="1"/>
-    </row>
-    <row r="360" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="D359" s="1"/>
+    </row>
+    <row r="360" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B360" s="1"/>
-    </row>
-    <row r="361" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="D360" s="1"/>
+    </row>
+    <row r="361" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B361" s="1"/>
-    </row>
-    <row r="362" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="D361" s="1"/>
+    </row>
+    <row r="362" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B362" s="1"/>
-    </row>
-    <row r="363" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="D362" s="1"/>
+    </row>
+    <row r="363" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B363" s="1"/>
-    </row>
-    <row r="364" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="D363" s="1"/>
+    </row>
+    <row r="364" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B364" s="1"/>
-    </row>
-    <row r="365" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="D364" s="1"/>
+    </row>
+    <row r="365" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B365" s="1"/>
-    </row>
-    <row r="366" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="D365" s="1"/>
+    </row>
+    <row r="366" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B366" s="1"/>
-    </row>
-    <row r="367" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="D366" s="1"/>
+    </row>
+    <row r="367" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B367" s="1"/>
-    </row>
-    <row r="368" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="D367" s="1"/>
+    </row>
+    <row r="368" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B368" s="1"/>
-    </row>
-    <row r="369" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="D368" s="1"/>
+    </row>
+    <row r="369" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B369" s="1"/>
-    </row>
-    <row r="370" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="D369" s="1"/>
+    </row>
+    <row r="370" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B370" s="1"/>
-    </row>
-    <row r="371" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="D370" s="1"/>
+    </row>
+    <row r="371" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B371" s="1"/>
-    </row>
-    <row r="372" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="D371" s="1"/>
+    </row>
+    <row r="372" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B372" s="1"/>
-    </row>
-    <row r="373" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="D372" s="1"/>
+    </row>
+    <row r="373" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B373" s="1"/>
-    </row>
-    <row r="374" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="D373" s="1"/>
+    </row>
+    <row r="374" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B374" s="1"/>
-    </row>
-    <row r="375" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="D374" s="1"/>
+    </row>
+    <row r="375" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B375" s="1"/>
-    </row>
-    <row r="376" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="D375" s="1"/>
+    </row>
+    <row r="376" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B376" s="1"/>
-    </row>
-    <row r="377" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="D376" s="1"/>
+    </row>
+    <row r="377" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B377" s="1"/>
-    </row>
-    <row r="378" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="D377" s="1"/>
+    </row>
+    <row r="378" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B378" s="1"/>
-    </row>
-    <row r="379" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="D378" s="1"/>
+    </row>
+    <row r="379" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B379" s="1"/>
-    </row>
-    <row r="380" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="D379" s="1"/>
+    </row>
+    <row r="380" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B380" s="1"/>
-    </row>
-    <row r="381" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="D380" s="1"/>
+    </row>
+    <row r="381" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B381" s="1"/>
-    </row>
-    <row r="382" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="D381" s="1"/>
+    </row>
+    <row r="382" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B382" s="1"/>
-    </row>
-    <row r="383" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="D382" s="1"/>
+    </row>
+    <row r="383" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B383" s="1"/>
-    </row>
-    <row r="384" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="D383" s="1"/>
+    </row>
+    <row r="384" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B384" s="1"/>
-    </row>
-    <row r="385" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="D384" s="1"/>
+    </row>
+    <row r="385" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B385" s="1"/>
-    </row>
-    <row r="386" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="D385" s="1"/>
+    </row>
+    <row r="386" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B386" s="1"/>
-    </row>
-    <row r="387" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="D386" s="1"/>
+    </row>
+    <row r="387" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B387" s="1"/>
-    </row>
-    <row r="388" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="D387" s="1"/>
+    </row>
+    <row r="388" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B388" s="1"/>
-    </row>
-    <row r="389" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="D388" s="1"/>
+    </row>
+    <row r="389" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B389" s="1"/>
-    </row>
-    <row r="390" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="D389" s="1"/>
+    </row>
+    <row r="390" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B390" s="1"/>
-    </row>
-    <row r="391" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="D390" s="1"/>
+    </row>
+    <row r="391" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B391" s="1"/>
-    </row>
-    <row r="392" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="D391" s="1"/>
+    </row>
+    <row r="392" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B392" s="1"/>
-    </row>
-    <row r="393" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="D392" s="1"/>
+    </row>
+    <row r="393" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B393" s="1"/>
-    </row>
-    <row r="394" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="D393" s="1"/>
+    </row>
+    <row r="394" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B394" s="1"/>
-    </row>
-    <row r="395" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="D394" s="1"/>
+    </row>
+    <row r="395" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B395" s="1"/>
-    </row>
-    <row r="396" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="D395" s="1"/>
+    </row>
+    <row r="396" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B396" s="1"/>
-    </row>
-    <row r="397" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="D396" s="1"/>
+    </row>
+    <row r="397" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B397" s="1"/>
-    </row>
-    <row r="398" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="D397" s="1"/>
+    </row>
+    <row r="398" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B398" s="1"/>
-    </row>
-    <row r="399" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="D398" s="1"/>
+    </row>
+    <row r="399" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B399" s="1"/>
     </row>
-    <row r="400" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="400" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B400" s="1"/>
     </row>
     <row r="401" spans="2:2" x14ac:dyDescent="0.3">
@@ -3649,12 +4435,104 @@
     <hyperlink ref="B89" r:id="rId88" xr:uid="{1D0EB488-0680-485E-8CF1-133E5576972E}"/>
     <hyperlink ref="B90" r:id="rId89" xr:uid="{4C4201CA-D518-4036-B4F4-DB389A1751C9}"/>
     <hyperlink ref="B91" r:id="rId90" xr:uid="{15094641-A942-494C-BE6E-917540B1C435}"/>
-    <hyperlink ref="B92" r:id="rId91" xr:uid="{C3E5FEB7-D9AA-4709-9AB5-80E982D8E15A}"/>
-    <hyperlink ref="B93" r:id="rId92" xr:uid="{3A923E10-2E04-4C98-959B-22AA5AE1762F}"/>
-    <hyperlink ref="B94" r:id="rId93" xr:uid="{6A37BE95-45D3-4AE3-8288-C102FCCA353E}"/>
-    <hyperlink ref="B95" r:id="rId94" xr:uid="{F450114B-6DDA-4705-9293-22AD2B10C3B1}"/>
-    <hyperlink ref="B96" r:id="rId95" xr:uid="{7EE7284C-58B4-4462-B11E-928BD039DB37}"/>
-    <hyperlink ref="B97" r:id="rId96" xr:uid="{38026768-0C35-48F5-A624-2218455DD9AE}"/>
+    <hyperlink ref="B92" r:id="rId91" xr:uid="{3A923E10-2E04-4C98-959B-22AA5AE1762F}"/>
+    <hyperlink ref="B93" r:id="rId92" xr:uid="{6A37BE95-45D3-4AE3-8288-C102FCCA353E}"/>
+    <hyperlink ref="B94" r:id="rId93" xr:uid="{F450114B-6DDA-4705-9293-22AD2B10C3B1}"/>
+    <hyperlink ref="B95" r:id="rId94" xr:uid="{7EE7284C-58B4-4462-B11E-928BD039DB37}"/>
+    <hyperlink ref="D2" r:id="rId95" xr:uid="{056A6C1C-7ACD-4A72-A752-88D2EE784113}"/>
+    <hyperlink ref="D3" r:id="rId96" xr:uid="{1B170DB8-4226-4512-8A6C-A66B589A9C9D}"/>
+    <hyperlink ref="D4" r:id="rId97" xr:uid="{D6D53399-73D2-4F0F-9181-B673C118B942}"/>
+    <hyperlink ref="D5" r:id="rId98" xr:uid="{9C7DD0A1-31C0-44BE-A413-38A1E37F98F2}"/>
+    <hyperlink ref="D6" r:id="rId99" xr:uid="{A37C7EBC-DDBF-4D17-852A-E6B2BEEFBE89}"/>
+    <hyperlink ref="D7" r:id="rId100" xr:uid="{D0B89235-C958-4898-B09C-4DA66B26B4B7}"/>
+    <hyperlink ref="D8" r:id="rId101" xr:uid="{22309037-9FA8-4492-8574-C995916F44FF}"/>
+    <hyperlink ref="D9" r:id="rId102" xr:uid="{F0C35983-E5E0-4CA1-AFF8-D592D28C2765}"/>
+    <hyperlink ref="D10" r:id="rId103" xr:uid="{617E4A18-3918-434D-AEB0-F79BC73E7B25}"/>
+    <hyperlink ref="D11" r:id="rId104" xr:uid="{CC571C99-9832-4048-A68F-5FD7E7D471ED}"/>
+    <hyperlink ref="D12" r:id="rId105" xr:uid="{B1CF6F60-14E2-4226-A807-0CA7197461FF}"/>
+    <hyperlink ref="D13" r:id="rId106" xr:uid="{51289BF0-A12D-4AA6-9205-6C825ADBC174}"/>
+    <hyperlink ref="D14" r:id="rId107" xr:uid="{AE963ADF-6929-457B-B5CF-B3BD9FD9E17F}"/>
+    <hyperlink ref="D15" r:id="rId108" xr:uid="{220712E8-1577-468D-A5C2-3AC96D56C5C0}"/>
+    <hyperlink ref="D16" r:id="rId109" xr:uid="{7CE3322B-064B-4CE7-A017-C2024CCEE67B}"/>
+    <hyperlink ref="D17" r:id="rId110" xr:uid="{B42B9837-8CB3-467C-AB1F-8B17192D357C}"/>
+    <hyperlink ref="D18" r:id="rId111" xr:uid="{EEAC3B97-CD46-4658-9576-D39776F6951D}"/>
+    <hyperlink ref="D19" r:id="rId112" xr:uid="{D1326A05-3D97-41C4-9DE6-CF8FA5E92450}"/>
+    <hyperlink ref="D20" r:id="rId113" xr:uid="{47FAD203-EB0A-4FD7-8C7A-9E5698C43C9C}"/>
+    <hyperlink ref="D21" r:id="rId114" xr:uid="{1414E116-DF46-49E4-A1F5-B5053C368303}"/>
+    <hyperlink ref="D22" r:id="rId115" xr:uid="{5A34C8C5-75C7-4F0E-8E01-5AF7F8D93495}"/>
+    <hyperlink ref="D23" r:id="rId116" xr:uid="{8F96B5ED-F324-485D-AC47-17D603C815EC}"/>
+    <hyperlink ref="D24" r:id="rId117" xr:uid="{68218F9F-AF81-46D1-BD89-7E8CA4FF0FF0}"/>
+    <hyperlink ref="D25" r:id="rId118" xr:uid="{2BA6E92A-AE29-461A-A1F9-05440D5D9F86}"/>
+    <hyperlink ref="D26" r:id="rId119" xr:uid="{35AE6AC1-B478-49C0-B446-C08523A5075F}"/>
+    <hyperlink ref="D27" r:id="rId120" xr:uid="{A8D91EE1-0069-48E7-ACB4-DC42E8A7C144}"/>
+    <hyperlink ref="D28" r:id="rId121" xr:uid="{515CAADA-EB5D-4ED3-AAB5-0E8F022E2408}"/>
+    <hyperlink ref="D29" r:id="rId122" xr:uid="{B24D4619-AEE7-4FD5-B495-0777C8936CA0}"/>
+    <hyperlink ref="D30" r:id="rId123" xr:uid="{37490349-EA9C-40BC-B70C-527727FA7C55}"/>
+    <hyperlink ref="D31" r:id="rId124" xr:uid="{94FF421A-E558-4F1C-BD33-EDB0B810CA7D}"/>
+    <hyperlink ref="D32" r:id="rId125" xr:uid="{7CB3AA20-1C19-48DF-A354-08ED76E606DF}"/>
+    <hyperlink ref="D33" r:id="rId126" xr:uid="{9CBFEB85-13C0-436E-B644-D387F70220A0}"/>
+    <hyperlink ref="D34" r:id="rId127" xr:uid="{3C7AF37E-65A3-41F6-B0F5-4A7F5074E819}"/>
+    <hyperlink ref="D35" r:id="rId128" xr:uid="{28585602-E23E-43F3-A6A4-D93E92F76414}"/>
+    <hyperlink ref="D36" r:id="rId129" xr:uid="{74A66703-5576-4882-AD96-114C7D072DF7}"/>
+    <hyperlink ref="D37" r:id="rId130" xr:uid="{5C85506E-0E8A-46F7-ADAE-7200BBC1DF7C}"/>
+    <hyperlink ref="D38" r:id="rId131" xr:uid="{6A64D67F-94EE-4F7C-90C3-51CF984D5557}"/>
+    <hyperlink ref="D39" r:id="rId132" xr:uid="{B19E8415-AA8E-486F-BD05-D5AF46BCE442}"/>
+    <hyperlink ref="D40" r:id="rId133" xr:uid="{4331CFFC-7891-42FE-B67F-C2D86E3E89F2}"/>
+    <hyperlink ref="D41" r:id="rId134" xr:uid="{4D3E175C-CD90-469D-9DFC-58DCE1C61A3C}"/>
+    <hyperlink ref="D42" r:id="rId135" xr:uid="{D4A001EA-B2FF-4C43-8B06-11F057C01CB9}"/>
+    <hyperlink ref="D43" r:id="rId136" xr:uid="{46DD336C-F3F3-4583-A0F5-3F82DFA75606}"/>
+    <hyperlink ref="D44" r:id="rId137" xr:uid="{6C18843F-6C0A-4704-870F-64415DF7736E}"/>
+    <hyperlink ref="D45" r:id="rId138" xr:uid="{E8902FC7-A2CE-4EC9-AA55-00C60E98500F}"/>
+    <hyperlink ref="D46" r:id="rId139" xr:uid="{429C6D89-B8C4-411C-B2F3-5771C92EBF9C}"/>
+    <hyperlink ref="D47" r:id="rId140" xr:uid="{EFECA52D-DEDF-4422-8A4C-945A77C04476}"/>
+    <hyperlink ref="D48" r:id="rId141" xr:uid="{7599658E-62AD-448B-B1F8-10778763FE54}"/>
+    <hyperlink ref="D49" r:id="rId142" xr:uid="{DC9771B5-815F-443E-8970-E38458E5BCB3}"/>
+    <hyperlink ref="D50" r:id="rId143" xr:uid="{6D93C4CB-FF7E-4CF7-9BBE-74F63308DC2C}"/>
+    <hyperlink ref="D51" r:id="rId144" xr:uid="{0FD2454A-C7AE-43EB-A701-46240AAA8334}"/>
+    <hyperlink ref="D52" r:id="rId145" xr:uid="{CA71808A-F38A-4DCB-A836-89F00285ECA4}"/>
+    <hyperlink ref="D53" r:id="rId146" xr:uid="{EC111E75-3620-4A0C-B053-DEE24F644259}"/>
+    <hyperlink ref="D54" r:id="rId147" xr:uid="{F35D3C1D-BB4B-403B-AC06-75CCD7F31F87}"/>
+    <hyperlink ref="D55" r:id="rId148" xr:uid="{044B62FF-74C1-4E01-B31A-38F4FC0DC709}"/>
+    <hyperlink ref="D56" r:id="rId149" xr:uid="{ADCA45CC-7B3D-4E7A-AB2D-CD88B9C26ACE}"/>
+    <hyperlink ref="D57" r:id="rId150" xr:uid="{4B10C8F9-491D-4DD4-9356-701E754230ED}"/>
+    <hyperlink ref="D58" r:id="rId151" xr:uid="{83E9CEEC-9153-44D0-B00E-5CEC2D525CE7}"/>
+    <hyperlink ref="D59" r:id="rId152" xr:uid="{88CBAE79-ED8C-4C50-8E03-A1A92440A82E}"/>
+    <hyperlink ref="D60" r:id="rId153" xr:uid="{266FA004-7DEB-49AA-A068-1A05DA44CF89}"/>
+    <hyperlink ref="D61" r:id="rId154" xr:uid="{6EC601AC-C5D9-46D1-9397-DFCE52B4F439}"/>
+    <hyperlink ref="D62" r:id="rId155" xr:uid="{E97173D4-43A0-45E2-A6DA-71F70EEF9E55}"/>
+    <hyperlink ref="D63" r:id="rId156" xr:uid="{164D01FD-5DA6-4463-8BCB-5E32B19AA38B}"/>
+    <hyperlink ref="D64" r:id="rId157" xr:uid="{413E4680-1B96-4AFD-8479-BB6C6EFCC295}"/>
+    <hyperlink ref="D65" r:id="rId158" xr:uid="{000DBB5D-1615-4CED-9046-ED111BEC5B05}"/>
+    <hyperlink ref="D66" r:id="rId159" xr:uid="{BF47CDCF-5AAA-46C6-B3FD-2135B1A5CBC0}"/>
+    <hyperlink ref="D67" r:id="rId160" xr:uid="{2EC5571E-3B37-4DF5-9D01-F5775681E97A}"/>
+    <hyperlink ref="D68" r:id="rId161" xr:uid="{FC9633A9-E65E-439B-85B6-44179EB503C2}"/>
+    <hyperlink ref="D69" r:id="rId162" xr:uid="{E6CCF041-236B-4133-BF90-6427868FDDBA}"/>
+    <hyperlink ref="D70" r:id="rId163" xr:uid="{52D8C52A-9942-416D-8631-16FB5C577139}"/>
+    <hyperlink ref="D71" r:id="rId164" xr:uid="{F5EAC140-CDFE-4852-9BBB-1FC85FDF3F8E}"/>
+    <hyperlink ref="D72" r:id="rId165" xr:uid="{4FA60717-2C3C-4BA2-8C6D-D3792880EE78}"/>
+    <hyperlink ref="D73" r:id="rId166" xr:uid="{B62EC710-2A38-41E2-A437-74676D4A249F}"/>
+    <hyperlink ref="D74" r:id="rId167" xr:uid="{F2132ADB-B88B-447F-852D-4236EA52A26C}"/>
+    <hyperlink ref="D75" r:id="rId168" xr:uid="{8AAE6D29-0AB2-4811-85D8-799DEF9AF726}"/>
+    <hyperlink ref="D76" r:id="rId169" xr:uid="{AF637F3E-C287-4165-9ADB-C3EEAD27F3C6}"/>
+    <hyperlink ref="D77" r:id="rId170" xr:uid="{5C9478B1-89B2-4E49-926C-6BC4C80C3464}"/>
+    <hyperlink ref="D78" r:id="rId171" xr:uid="{993072E2-680F-41F1-A6D0-25CC232CED11}"/>
+    <hyperlink ref="D79" r:id="rId172" xr:uid="{8C28A56B-DF4E-4A23-A0E8-E920DDB21D55}"/>
+    <hyperlink ref="D80" r:id="rId173" xr:uid="{55D9874C-F8A0-492B-8004-F9C8EC06176E}"/>
+    <hyperlink ref="D81" r:id="rId174" xr:uid="{EBCB8DB1-F58A-4CEF-AB29-441E22B9088C}"/>
+    <hyperlink ref="D82" r:id="rId175" xr:uid="{5910A651-DCA3-4E5D-87B7-65D4FB29E97B}"/>
+    <hyperlink ref="D83" r:id="rId176" xr:uid="{99EC4831-8E0D-42BE-9454-8E5FB2420AD5}"/>
+    <hyperlink ref="D84" r:id="rId177" xr:uid="{33365B67-B249-4FA6-9DBE-D0D52E9F28B8}"/>
+    <hyperlink ref="D85" r:id="rId178" xr:uid="{36C97596-86F8-4ED1-B204-97AD6A45FBFC}"/>
+    <hyperlink ref="D86" r:id="rId179" xr:uid="{DC061FE1-77DF-4377-83FA-625E85E12BFD}"/>
+    <hyperlink ref="D87" r:id="rId180" xr:uid="{277D45CD-D153-433E-BC20-5D2C178F8FD4}"/>
+    <hyperlink ref="D88" r:id="rId181" xr:uid="{1C4054D6-260D-4E75-89FB-FE1DD8A1F7F5}"/>
+    <hyperlink ref="D89" r:id="rId182" xr:uid="{05A8EC58-2AFB-44AA-8ECE-4A6130A185E4}"/>
+    <hyperlink ref="D90" r:id="rId183" xr:uid="{23B7EF47-300C-4341-A81F-1767F985B2E1}"/>
+    <hyperlink ref="D91" r:id="rId184" xr:uid="{FA5B6755-49F9-43FA-9DC9-D84D1430494C}"/>
+    <hyperlink ref="D92" r:id="rId185" xr:uid="{9B84F229-AFDF-4B3C-A75B-DAB834A776D9}"/>
+    <hyperlink ref="D93" r:id="rId186" xr:uid="{F3BB2B4A-CF25-46C7-A2A0-A58EB92C7771}"/>
+    <hyperlink ref="D94" r:id="rId187" xr:uid="{7A9C1FD0-4EEF-48E6-AFD5-4E6E26B21674}"/>
+    <hyperlink ref="D95" r:id="rId188" xr:uid="{DB409DA2-333D-4A27-A579-4E73E6310A1A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
